--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3338717.382420403</v>
+        <v>3336466.56403451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.977350914694</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>16.49665477297183</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068574</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>146.6850513083904</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253828</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9453656527047</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>316.5747219976527</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400739</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784695</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6268892744759</v>
+        <v>188.0619344736788</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873214</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>70.70607604584265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.380068175847602</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>49.83383350955526</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>55.83148069963415</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.41670903609963</v>
+        <v>51.00672667166853</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274475</v>
+        <v>156.8454273099539</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.68096378755395</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.15999212057508</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3187,16 +3187,16 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.80319228443805</v>
+        <v>49.97741920874136</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3424,13 +3424,13 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>78.39701158502558</v>
+        <v>135.8988215615475</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.57123850932899</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3727,7 +3727,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232582</v>
+        <v>118.2676518103746</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0553039573031</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>50.57147450889758</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>51.19843204834036</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>70.12424455218928</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.824306174799</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E5" t="n">
-        <v>642.0360535765544</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9622657131106</v>
+        <v>471.4038777286582</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9622657131106</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9622657131106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9622657131106</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951866</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
@@ -5051,13 +5051,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,37 +5133,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1676.551458888818</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1454.784843458344</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1165.681976583988</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>910.9974883781013</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>621.5803183411406</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,25 +5279,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5437,13 +5437,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1884.923187270519</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1884.923187270519</v>
+        <v>1949.898952795767</v>
       </c>
       <c r="T16" t="n">
-        <v>1663.156571840045</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U16" t="n">
-        <v>1663.156571840045</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.472083634158</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W16" t="n">
-        <v>1119.054913597198</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X16" t="n">
-        <v>891.0653626991802</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5525,13 +5525,13 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.4810578558178</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C19" t="n">
-        <v>409.4810578558178</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558178</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558178</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558178</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1618.431689638922</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1329.328822764566</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1329.328822764566</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.911652727605</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="X19" t="n">
-        <v>811.9221018295876</v>
+        <v>681.2836032803233</v>
       </c>
       <c r="Y19" t="n">
-        <v>591.1295226860575</v>
+        <v>460.4910241367932</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2762.028521254639</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5832,7 +5832,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736756</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736756</v>
+        <v>413.3805104860111</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208121</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838513</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858339</v>
+        <v>646.5509214492494</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039153</v>
+        <v>595.0289753162508</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>301.7164587107642</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>956.4397908460637</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="E25" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C25" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="D25" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="E25" t="n">
-        <v>95.56103444839437</v>
-      </c>
       <c r="F25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1708.083284306722</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1486.316668876249</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1197.213802001892</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>942.5293137960052</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>653.1121437590446</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978503</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978503</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978503</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6461,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C31" t="n">
         <v>95.56103444839437</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1919.818221538466</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6780,7 +6780,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383119</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383119</v>
+        <v>332.2198106859973</v>
       </c>
       <c r="D34" t="n">
-        <v>472.4728289383119</v>
+        <v>332.2198106859973</v>
       </c>
       <c r="E34" t="n">
-        <v>399.944351883324</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="F34" t="n">
         <v>281.7375690610062</v>
@@ -6868,7 +6868,7 @@
         <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6880,7 +6880,7 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
         <v>1957.092411628629</v>
@@ -6892,16 +6892,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608967</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929591</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1963.918173296941</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2497.450077968866</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3044.228895027648</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051909</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C37" t="n">
-        <v>454.431220914256</v>
+        <v>335.2012920074554</v>
       </c>
       <c r="D37" t="n">
-        <v>332.9977461775129</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="E37" t="n">
         <v>213.7678172707122</v>
@@ -7102,7 +7102,7 @@
         <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090857</v>
@@ -7114,31 +7114,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277759</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.5854216598381</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,25 +7175,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866384</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139993</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7254,37 +7254,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051909</v>
+        <v>545.1199688503148</v>
       </c>
       <c r="C40" t="n">
-        <v>393.3671032528765</v>
+        <v>404.8669505980004</v>
       </c>
       <c r="D40" t="n">
-        <v>271.9336285161334</v>
+        <v>283.4334758612572</v>
       </c>
       <c r="E40" t="n">
-        <v>152.7036996093328</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F40" t="n">
-        <v>152.7036996093328</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G40" t="n">
-        <v>152.7036996093328</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7036996093328</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7339,7 +7339,7 @@
         <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
         <v>1487.357919090857</v>
@@ -7348,34 +7348,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
         <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277756</v>
+        <v>817.5475435608959</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598381</v>
+        <v>698.0852690049619</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.647446689875</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.620121505191</v>
+        <v>614.4739822094582</v>
       </c>
       <c r="C43" t="n">
-        <v>533.620121505191</v>
+        <v>474.2209639571439</v>
       </c>
       <c r="D43" t="n">
-        <v>533.620121505191</v>
+        <v>352.7874892204007</v>
       </c>
       <c r="E43" t="n">
-        <v>414.3901925983905</v>
+        <v>352.7874892204007</v>
       </c>
       <c r="F43" t="n">
-        <v>414.3901925983905</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G43" t="n">
-        <v>275.370520648702</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
         <v>400.8955892413028</v>
@@ -7576,7 +7576,7 @@
         <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N43" t="n">
         <v>1487.357919090857</v>
@@ -7591,28 +7591,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1825.156253440627</v>
+        <v>1906.010114144894</v>
       </c>
       <c r="U43" t="n">
-        <v>1564.736551241863</v>
+        <v>1645.59041194613</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.735227711569</v>
+        <v>1419.589088415836</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.001222350201</v>
+        <v>1158.855083054468</v>
       </c>
       <c r="X43" t="n">
-        <v>878.6948361277757</v>
+        <v>959.5486968320429</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5854216598382</v>
+        <v>767.4392823641053</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,7 +7764,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383112</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C46" t="n">
-        <v>472.4728289383112</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="D46" t="n">
-        <v>420.7572410106947</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="E46" t="n">
-        <v>420.7572410106947</v>
+        <v>353.2429000315109</v>
       </c>
       <c r="F46" t="n">
-        <v>420.7572410106947</v>
+        <v>235.0361172091932</v>
       </c>
       <c r="G46" t="n">
-        <v>281.7375690610062</v>
+        <v>235.0361172091932</v>
       </c>
       <c r="H46" t="n">
         <v>164.2035469544565</v>
@@ -7813,7 +7813,7 @@
         <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
         <v>1487.357919090857</v>
@@ -7825,7 +7825,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
         <v>2120.09513112621</v>
@@ -7834,10 +7834,10 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
         <v>1277.587935144689</v>
@@ -7846,10 +7846,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608962</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929583</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476831</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,16 +9173,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>183.0848540075446</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>388.4310778980902</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>17.45080131650943</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570123</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>413.669975960784</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>410.4190035206666</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>124.0833809162815</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>34.13957882094019</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>104.3976710547477</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696598</v>
+        <v>1.707090857763126</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.22607662420468</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555943</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>129.998146672382</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.7174685765351</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.1679443159952</v>
+        <v>167.5779266804263</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696688</v>
+        <v>32.923598021488</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.93450923065841</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>46.23443733329451</v>
+        <v>68.0602104089912</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
         <v>137.6294752301916</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>60.45347648476564</v>
+        <v>2.951666508243735</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>11.38484887167249</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.92066851288354</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.303377928181135</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>140.581141738435</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>69.0207079410354</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.23443733329486</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417304</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.127052221</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522207</v>
       </c>
       <c r="I2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="J2" t="n">
-        <v>694893.1270522209</v>
-      </c>
       <c r="K2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
-        <v>709109.944278172</v>
+        <v>709109.9442781721</v>
       </c>
       <c r="M2" t="n">
-        <v>709109.9442781727</v>
+        <v>709109.9442781723</v>
       </c>
       <c r="N2" t="n">
         <v>709109.9442781725</v>
       </c>
       <c r="O2" t="n">
-        <v>709109.9442781725</v>
+        <v>709109.9442781719</v>
       </c>
       <c r="P2" t="n">
-        <v>709109.944278172</v>
+        <v>709109.9442781721</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>22717.06642306929</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="L4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="M4" t="n">
         <v>27492.30103190627</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190629</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038338</v>
+        <v>-137764.0955038342</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107106</v>
+        <v>452203.7837107105</v>
       </c>
       <c r="D6" t="n">
-        <v>452203.7837107104</v>
+        <v>452203.7837107103</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.29751409</v>
+        <v>-147083.4930043153</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.1164793172</v>
+        <v>580293.9209890916</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.1164793173</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793172</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.1164793172</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867244</v>
+        <v>403870.7017964985</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.1164793173</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="L6" t="n">
-        <v>560129.8072480814</v>
+        <v>560103.2312356442</v>
       </c>
       <c r="M6" t="n">
-        <v>453204.5588322066</v>
+        <v>453177.9828197691</v>
       </c>
       <c r="N6" t="n">
-        <v>582846.8736711512</v>
+        <v>582820.2976587139</v>
       </c>
       <c r="O6" t="n">
-        <v>582846.8736711512</v>
+        <v>582820.2976587133</v>
       </c>
       <c r="P6" t="n">
-        <v>582846.8736711508</v>
+        <v>582820.2976587135</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.75649074878658</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332972</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>390.3793909687396</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.31895447161162</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>78.3500541496939</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165949</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8388043680903</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>11.17753647248225</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375406</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.826549013101968e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.515870327259277e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883661</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32552,10 +32552,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33266,10 +33266,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33500,10 +33500,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359025</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35571,22 +35571,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306621</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35893,16 +35893,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>433.8791588112641</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>844.0211922904224</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36200,10 +36200,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>208.237802285222</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36756,7 +36756,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>787.7611930989425</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493445</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>952.5910917910107</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>866.0091179129988</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>676.385216329193</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37552,7 +37552,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>586.4414142338517</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>559.9877854470799</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>615.7497445457057</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>735.386689420456</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
         <v>330.7494632514764</v>
